--- a/Integrated Project/Gauteng MMS/web/Reports/Monthly/Body File/2013-June Report - Body File - Closed.xlsx
+++ b/Integrated Project/Gauteng MMS/web/Reports/Monthly/Body File/2013-June Report - Body File - Closed.xlsx
@@ -323,7 +323,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="n" s="1">
-        <v>41435.46193722222</v>
+        <v>41439.32496909722</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
